--- a/Thesis/FeaturesAndMilestones.xlsx
+++ b/Thesis/FeaturesAndMilestones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Guildhall\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06153AA-3B66-4AE9-89C4-76547F4AFBA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B433D965-2600-4B9E-9ED6-29215CBD40AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8EC9DAD3-D2D1-4609-9F88-63D7E5E7621D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8EC9DAD3-D2D1-4609-9F88-63D7E5E7621D}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="117">
   <si>
     <t>Feature Id</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Build Tic Tac Toe</t>
   </si>
   <si>
-    <t>Tic Tac Toe will be used to learn and understand how to architect my game for easier implementation of an AI</t>
-  </si>
-  <si>
     <t>AI</t>
   </si>
   <si>
@@ -337,6 +334,57 @@
   </si>
   <si>
     <t>Milestone 7</t>
+  </si>
+  <si>
+    <t>Build Towers of Hanoi</t>
+  </si>
+  <si>
+    <t>Use Towers of Hanoi as a test to understand MCTS without having a second player</t>
+  </si>
+  <si>
+    <t>Tic Tac Toe will be used to learn and understand how to architect my game for easier implementation of an AI and understanding of what adding an opponent means</t>
+  </si>
+  <si>
+    <t>Prototype Dominion with limited controls and rules (use numbers to choose cards and enter to confirm choice)</t>
+  </si>
+  <si>
+    <t>Build Monte Carlo (no tree) for Dominion, each action should run X number of simulated games from that state</t>
+  </si>
+  <si>
+    <t>Implement chance nodes for first iteration of Monte Carlo Tree Search for Dominion</t>
+  </si>
+  <si>
+    <t>Test different variations of handling hidden information for cards and card order</t>
+  </si>
+  <si>
+    <t>Continue iterating on hidden information</t>
+  </si>
+  <si>
+    <t>Build in simple state machines for Big Money and Single Witch</t>
+  </si>
+  <si>
+    <t>Implement simulation mode to run games</t>
+  </si>
+  <si>
+    <t>Continue iterating on MCTS</t>
+  </si>
+  <si>
+    <t>Implement UI/UX for Card Dragging</t>
+  </si>
+  <si>
+    <t>Polish UI/UX - Grey out invalid card, buttons for Next Phase/End turn, Opponent action conveyance</t>
+  </si>
+  <si>
+    <t>Simulation controls and menu fleshed out</t>
+  </si>
+  <si>
+    <t>Results of simulation output to a log</t>
+  </si>
+  <si>
+    <t>Build Towers of Hanoi MCTS AI</t>
+  </si>
+  <si>
+    <t>Build Tic Tac Toe  MCTS AI</t>
   </si>
 </sst>
 </file>
@@ -378,16 +426,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -414,10 +475,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F3303B41-9F2A-4012-ACEB-8F5453C39034}" name="Table1" displayName="Table1" ref="A5:E29" totalsRowShown="0">
-  <autoFilter ref="A5:E29" xr:uid="{B6460BB7-13AA-4F1F-9749-E68AF4FFB389}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:E28">
-    <sortCondition ref="A5:A28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F3303B41-9F2A-4012-ACEB-8F5453C39034}" name="Table1" displayName="Table1" ref="A5:E30" totalsRowShown="0">
+  <autoFilter ref="A5:E30" xr:uid="{B6460BB7-13AA-4F1F-9749-E68AF4FFB389}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:E30">
+    <sortCondition ref="A5:A30"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8D2D56DD-2ABC-4D4A-8CF6-7B2C6B318A2D}" name="Feature Id"/>
@@ -439,17 +500,43 @@
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{6C05EB0F-FB19-4D58-A09C-5571A12DFAA8}" name="Milestones"/>
     <tableColumn id="2" xr3:uid="{9898FC36-A76D-47DD-ABE8-618D0DA50B9D}" name="Feature ID"/>
-    <tableColumn id="3" xr3:uid="{408F7B0D-292E-4BE5-B0CE-1594FED43064}" name="Phase" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{408F7B0D-292E-4BE5-B0CE-1594FED43064}" name="Phase" dataDxfId="7">
       <calculatedColumnFormula>VLOOKUP($B6,Table1[#All],2,TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{A5E4E891-B339-4366-9BA3-FF7ED780F3B7}" name="Area" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{A5E4E891-B339-4366-9BA3-FF7ED780F3B7}" name="Area" dataDxfId="6">
       <calculatedColumnFormula>VLOOKUP($B6,Table1[#All],3,TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9B9D5776-D19A-4F95-891E-6A226D121C87}" name="Features" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{9B9D5776-D19A-4F95-891E-6A226D121C87}" name="Features" dataDxfId="5">
       <calculatedColumnFormula>VLOOKUP($B6,Table1[#All],4,TRUE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C2CEE9AB-ED4E-43BB-ADD2-20E420231381}" name="Description" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{C2CEE9AB-ED4E-43BB-ADD2-20E420231381}" name="Description" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP($B6,Table1[#All],5,TRUE)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{F1E23843-CBF4-4BB0-AA47-9955D29C11C5}" name="Table34" displayName="Table34" ref="A36:F64" totalsRowShown="0">
+  <autoFilter ref="A36:F64" xr:uid="{C7986EC5-2B05-4F2C-AD0A-8E43DD547664}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A37:F64">
+    <sortCondition ref="A5:A32"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B6A71F10-D930-4E00-AB3B-9998A80A957E}" name="Milestones"/>
+    <tableColumn id="2" xr3:uid="{8A94704E-AABB-4FB3-ACE0-9AF39949B158}" name="Feature ID"/>
+    <tableColumn id="3" xr3:uid="{F47A9039-43C3-4964-8F19-A8DE822028A8}" name="Phase" dataDxfId="3">
+      <calculatedColumnFormula>VLOOKUP($B37,Table1[#All],2,TRUE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{9BF0FB13-91DB-4ED1-AF26-C7FF3E613D33}" name="Area" dataDxfId="2">
+      <calculatedColumnFormula>VLOOKUP($B37,Table1[#All],3,TRUE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{9A452FE9-5A3E-4A95-9872-41D3E28A2320}" name="Features" dataDxfId="1">
+      <calculatedColumnFormula>VLOOKUP($B37,Table1[#All],4,TRUE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{38852615-9BB3-43C1-91C0-41868ED4A769}" name="Description" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP($B37,Table1[#All],5,TRUE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -753,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7017949B-A882-46E6-838F-82F86760BC5B}">
-  <dimension ref="A5:E47"/>
+  <dimension ref="A5:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,10 +883,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -816,7 +903,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -827,13 +914,13 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>13</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -844,13 +931,13 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
         <v>15</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -858,16 +945,16 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -875,16 +962,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
         <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -892,16 +979,16 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -912,13 +999,13 @@
         <v>6</v>
       </c>
       <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -929,13 +1016,13 @@
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
         <v>27</v>
-      </c>
-      <c r="E14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -946,13 +1033,13 @@
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
         <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -963,13 +1050,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
         <v>31</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -980,13 +1067,13 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" t="s">
         <v>77</v>
-      </c>
-      <c r="E17" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -997,13 +1084,13 @@
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
         <v>79</v>
-      </c>
-      <c r="E18" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1014,13 +1101,13 @@
         <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1031,13 +1118,13 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1048,13 +1135,13 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1065,13 +1152,13 @@
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
         <v>81</v>
-      </c>
-      <c r="E22" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1082,13 +1169,13 @@
         <v>6</v>
       </c>
       <c r="C23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
         <v>36</v>
       </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1105,7 +1192,7 @@
         <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1116,13 +1203,13 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1133,13 +1220,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1150,13 +1237,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" t="s">
         <v>72</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>73</v>
-      </c>
-      <c r="E27" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1167,13 +1254,13 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" t="s">
         <v>75</v>
-      </c>
-      <c r="E28" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1181,132 +1268,149 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
         <v>97</v>
       </c>
-      <c r="C29" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>98</v>
       </c>
-      <c r="E29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" t="s">
-        <v>44</v>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
         <v>56</v>
-      </c>
-      <c r="B39" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1319,16 +1423,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53DA1CD7-BAFC-439A-BD9A-E77A52E973B1}">
-  <dimension ref="A5:F32"/>
+  <dimension ref="A5:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.5703125" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
@@ -1337,10 +1441,10 @@
   <sheetData>
     <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
         <v>89</v>
-      </c>
-      <c r="B5" t="s">
-        <v>90</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -1357,7 +1461,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1381,7 +1485,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1400,12 +1504,12 @@
       </c>
       <c r="F7" t="str">
         <f>VLOOKUP($B7,Table1[#All],5,TRUE)</f>
-        <v>Tic Tac Toe will be used to learn and understand how to architect my game for easier implementation of an AI</v>
+        <v>Tic Tac Toe will be used to learn and understand how to architect my game for easier implementation of an AI and understanding of what adding an opponent means</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1429,7 +1533,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9">
         <v>4</v>
@@ -1453,7 +1557,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -1477,7 +1581,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -1501,7 +1605,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12">
         <v>7</v>
@@ -1525,7 +1629,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B13">
         <v>8</v>
@@ -1549,7 +1653,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -1573,7 +1677,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15">
         <v>10</v>
@@ -1597,7 +1701,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -1621,7 +1725,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1645,7 +1749,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18">
         <v>11</v>
@@ -1669,7 +1773,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B19">
         <v>12</v>
@@ -1693,7 +1797,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B20">
         <v>13</v>
@@ -1717,7 +1821,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B21">
         <v>15</v>
@@ -1741,7 +1845,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22">
         <v>16</v>
@@ -1765,7 +1869,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B23">
         <v>17</v>
@@ -1789,7 +1893,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24">
         <v>19</v>
@@ -1813,7 +1917,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B25">
         <v>22</v>
@@ -1837,7 +1941,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26">
         <v>16</v>
@@ -1861,7 +1965,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27">
         <v>18</v>
@@ -1885,7 +1989,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28">
         <v>20</v>
@@ -1909,7 +2013,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29">
         <v>21</v>
@@ -1933,7 +2037,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30">
         <v>23</v>
@@ -1957,7 +2061,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31">
         <v>16</v>
@@ -1981,7 +2085,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32">
         <v>24</v>
@@ -2003,10 +2107,831 @@
         <v>The results between MCTS and Single Witch/Big Money are written up to show how well (or poorly) MCTS did with the different variations</v>
       </c>
     </row>
+    <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="str">
+        <f>VLOOKUP($B37,Table1[#All],2,TRUE)</f>
+        <v>Prototype</v>
+      </c>
+      <c r="D37" t="str">
+        <f>VLOOKUP($B37,Table1[#All],3,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="E37" t="str">
+        <f>VLOOKUP($B37,Table1[#All],4,TRUE)</f>
+        <v>Base Project</v>
+      </c>
+      <c r="F37" t="str">
+        <f>VLOOKUP($B37,Table1[#All],5,TRUE)</f>
+        <v>Base Project to build all future table top ai games off of</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38">
+        <v>25</v>
+      </c>
+      <c r="C38" s="2" t="str">
+        <f>VLOOKUP($B38,Table1[#All],2,TRUE)</f>
+        <v>Prototype</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f>VLOOKUP($B38,Table1[#All],3,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f>VLOOKUP($B38,Table1[#All],4,TRUE)</f>
+        <v>Build Towers of Hanoi</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f>VLOOKUP($B38,Table1[#All],5,TRUE)</f>
+        <v>Use Towers of Hanoi as a test to understand MCTS without having a second player</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="str">
+        <f>VLOOKUP($B39,Table1[#All],2,TRUE)</f>
+        <v>Prototype</v>
+      </c>
+      <c r="D39" t="str">
+        <f>VLOOKUP($B39,Table1[#All],3,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="E39" t="str">
+        <f>VLOOKUP($B39,Table1[#All],4,TRUE)</f>
+        <v>Build Tic Tac Toe</v>
+      </c>
+      <c r="F39" t="str">
+        <f>VLOOKUP($B39,Table1[#All],5,TRUE)</f>
+        <v>Tic Tac Toe will be used to learn and understand how to architect my game for easier implementation of an AI and understanding of what adding an opponent means</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40" t="str">
+        <f>VLOOKUP($B40,Table1[#All],2,TRUE)</f>
+        <v>Prototype</v>
+      </c>
+      <c r="D40" t="str">
+        <f>VLOOKUP($B40,Table1[#All],3,TRUE)</f>
+        <v>AI</v>
+      </c>
+      <c r="E40" t="str">
+        <f>VLOOKUP($B40,Table1[#All],4,TRUE)</f>
+        <v>Tic Tac Toe State machine AI</v>
+      </c>
+      <c r="F40" t="str">
+        <f>VLOOKUP($B40,Table1[#All],5,TRUE)</f>
+        <v>Tic Tac Toe State machine will be a test opponent for MCTS</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="str">
+        <f>VLOOKUP($B41,Table1[#All],2,TRUE)</f>
+        <v>Prototype</v>
+      </c>
+      <c r="D41" t="str">
+        <f>VLOOKUP($B41,Table1[#All],3,TRUE)</f>
+        <v>AI</v>
+      </c>
+      <c r="E41" t="str">
+        <f>VLOOKUP($B41,Table1[#All],4,TRUE)</f>
+        <v>Tic Tac Toe MCTS AI</v>
+      </c>
+      <c r="F41" t="str">
+        <f>VLOOKUP($B41,Table1[#All],5,TRUE)</f>
+        <v>Initial learning of MCTS AI using Tic Tac Toe</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42" t="str">
+        <f>VLOOKUP($B42,Table1[#All],2,TRUE)</f>
+        <v>Dominion</v>
+      </c>
+      <c r="D42" t="str">
+        <f>VLOOKUP($B42,Table1[#All],3,TRUE)</f>
+        <v>Game Mechanics</v>
+      </c>
+      <c r="E42" t="str">
+        <f>VLOOKUP($B42,Table1[#All],4,TRUE)</f>
+        <v>Base Game</v>
+      </c>
+      <c r="F42" t="str">
+        <f>VLOOKUP($B42,Table1[#All],5,TRUE)</f>
+        <v>2 Player Base Dominion game is built for easy control for both a human and an AI player. It is built very efficiently to allow for massive amounts of games on multiple threads</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43" t="str">
+        <f>VLOOKUP($B43,Table1[#All],2,TRUE)</f>
+        <v>Dominion</v>
+      </c>
+      <c r="D43" t="str">
+        <f>VLOOKUP($B43,Table1[#All],3,TRUE)</f>
+        <v>Game Mechanics</v>
+      </c>
+      <c r="E43" t="str">
+        <f>VLOOKUP($B43,Table1[#All],4,TRUE)</f>
+        <v>Dominion Base Rules</v>
+      </c>
+      <c r="F43" t="str">
+        <f>VLOOKUP($B43,Table1[#All],5,TRUE)</f>
+        <v>Dominion has base rules for any game excluding the cards themselves. This includes Drawing</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44" t="str">
+        <f>VLOOKUP($B44,Table1[#All],2,TRUE)</f>
+        <v>Dominion</v>
+      </c>
+      <c r="D44" t="str">
+        <f>VLOOKUP($B44,Table1[#All],3,TRUE)</f>
+        <v>Game Mechanics</v>
+      </c>
+      <c r="E44" t="str">
+        <f>VLOOKUP($B44,Table1[#All],4,TRUE)</f>
+        <v>Dominion Cards</v>
+      </c>
+      <c r="F44" t="str">
+        <f>VLOOKUP($B44,Table1[#All],5,TRUE)</f>
+        <v>Only cards in both first and second edition are implemented. This removes many of the complicated cards and still leaves 18 possible cards out of 10 that will be in a single game</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="C45" t="str">
+        <f>VLOOKUP($B45,Table1[#All],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="D45" t="str">
+        <f>VLOOKUP($B45,Table1[#All],3,TRUE)</f>
+        <v>UI/UX</v>
+      </c>
+      <c r="E45" t="str">
+        <f>VLOOKUP($B45,Table1[#All],4,TRUE)</f>
+        <v>Card Dragging</v>
+      </c>
+      <c r="F45" t="str">
+        <f>VLOOKUP($B45,Table1[#All],5,TRUE)</f>
+        <v>Player can drag cards from hand to play</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="C46" t="str">
+        <f>VLOOKUP($B46,Table1[#All],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="D46" t="str">
+        <f>VLOOKUP($B46,Table1[#All],3,TRUE)</f>
+        <v>UI/UX</v>
+      </c>
+      <c r="E46" t="str">
+        <f>VLOOKUP($B46,Table1[#All],4,TRUE)</f>
+        <v>Hand</v>
+      </c>
+      <c r="F46" t="str">
+        <f>VLOOKUP($B46,Table1[#All],5,TRUE)</f>
+        <v>Player's current hand is shown at the bottom of the screen</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47" t="str">
+        <f>VLOOKUP($B47,Table1[#All],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="D47" t="str">
+        <f>VLOOKUP($B47,Table1[#All],3,TRUE)</f>
+        <v>UI/UX</v>
+      </c>
+      <c r="E47" t="str">
+        <f>VLOOKUP($B47,Table1[#All],4,TRUE)</f>
+        <v>Basic Game Information</v>
+      </c>
+      <c r="F47" t="str">
+        <f>VLOOKUP($B47,Table1[#All],5,TRUE)</f>
+        <v>During the player's turn the player's current gold amount, amount of buys available, and amount of actions available.</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48">
+        <v>14</v>
+      </c>
+      <c r="C48" t="str">
+        <f>VLOOKUP($B48,Table1[#All],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="D48" t="str">
+        <f>VLOOKUP($B48,Table1[#All],3,TRUE)</f>
+        <v>AI</v>
+      </c>
+      <c r="E48" t="str">
+        <f>VLOOKUP($B48,Table1[#All],4,TRUE)</f>
+        <v>Big Money State Machine</v>
+      </c>
+      <c r="F48" t="str">
+        <f>VLOOKUP($B48,Table1[#All],5,TRUE)</f>
+        <v>A state machine using the Big money algorithm where only the highest money value is bought until the average money density reaches enough to buy a province every turn</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="C49" t="str">
+        <f>VLOOKUP($B49,Table1[#All],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="D49" t="str">
+        <f>VLOOKUP($B49,Table1[#All],3,TRUE)</f>
+        <v>AI</v>
+      </c>
+      <c r="E49" t="str">
+        <f>VLOOKUP($B49,Table1[#All],4,TRUE)</f>
+        <v>MCTS</v>
+      </c>
+      <c r="F49" t="str">
+        <f>VLOOKUP($B49,Table1[#All],5,TRUE)</f>
+        <v>MCTS is implemented with exposed variables for tweaking the algorithm like selection method and Exploration parameter</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50">
+        <v>11</v>
+      </c>
+      <c r="C50" t="str">
+        <f>VLOOKUP($B50,Table1[#All],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="D50" t="str">
+        <f>VLOOKUP($B50,Table1[#All],3,TRUE)</f>
+        <v>UI/UX</v>
+      </c>
+      <c r="E50" t="str">
+        <f>VLOOKUP($B50,Table1[#All],4,TRUE)</f>
+        <v>Grey out invalid cards</v>
+      </c>
+      <c r="F50" t="str">
+        <f>VLOOKUP($B50,Table1[#All],5,TRUE)</f>
+        <v>Cards that can't be played are greyed out or shown as invalid plays</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51">
+        <v>12</v>
+      </c>
+      <c r="C51" t="str">
+        <f>VLOOKUP($B51,Table1[#All],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="D51" t="str">
+        <f>VLOOKUP($B51,Table1[#All],3,TRUE)</f>
+        <v>UI/UX</v>
+      </c>
+      <c r="E51" t="str">
+        <f>VLOOKUP($B51,Table1[#All],4,TRUE)</f>
+        <v>Go to Next Phase/End Turn</v>
+      </c>
+      <c r="F51" t="str">
+        <f>VLOOKUP($B51,Table1[#All],5,TRUE)</f>
+        <v xml:space="preserve"> There is a button to move to the next phase and end turn</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52">
+        <v>13</v>
+      </c>
+      <c r="C52" t="str">
+        <f>VLOOKUP($B52,Table1[#All],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="D52" t="str">
+        <f>VLOOKUP($B52,Table1[#All],3,TRUE)</f>
+        <v>UI/UX</v>
+      </c>
+      <c r="E52" t="str">
+        <f>VLOOKUP($B52,Table1[#All],4,TRUE)</f>
+        <v>Opponents turns move conveyance</v>
+      </c>
+      <c r="F52" t="str">
+        <f>VLOOKUP($B52,Table1[#All],5,TRUE)</f>
+        <v>Opponents plays are highlighted to show what they did</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53">
+        <v>15</v>
+      </c>
+      <c r="C53" t="str">
+        <f>VLOOKUP($B53,Table1[#All],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="D53" t="str">
+        <f>VLOOKUP($B53,Table1[#All],3,TRUE)</f>
+        <v>AI</v>
+      </c>
+      <c r="E53" t="str">
+        <f>VLOOKUP($B53,Table1[#All],4,TRUE)</f>
+        <v>Single Witch State Machine</v>
+      </c>
+      <c r="F53" t="str">
+        <f>VLOOKUP($B53,Table1[#All],5,TRUE)</f>
+        <v>A state machine using the Single Witch algorithm where Big Money is used except for getting a single witch as soon as possible</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54">
+        <v>16</v>
+      </c>
+      <c r="C54" t="str">
+        <f>VLOOKUP($B54,Table1[#All],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="D54" t="str">
+        <f>VLOOKUP($B54,Table1[#All],3,TRUE)</f>
+        <v>AI</v>
+      </c>
+      <c r="E54" t="str">
+        <f>VLOOKUP($B54,Table1[#All],4,TRUE)</f>
+        <v>MCTS</v>
+      </c>
+      <c r="F54" t="str">
+        <f>VLOOKUP($B54,Table1[#All],5,TRUE)</f>
+        <v>MCTS is implemented with exposed variables for tweaking the algorithm like selection method and Exploration parameter</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B55">
+        <v>17</v>
+      </c>
+      <c r="C55" t="str">
+        <f>VLOOKUP($B55,Table1[#All],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="D55" t="str">
+        <f>VLOOKUP($B55,Table1[#All],3,TRUE)</f>
+        <v>AI</v>
+      </c>
+      <c r="E55" t="str">
+        <f>VLOOKUP($B55,Table1[#All],4,TRUE)</f>
+        <v>MCTS Move Score</v>
+      </c>
+      <c r="F55" t="str">
+        <f>VLOOKUP($B55,Table1[#All],5,TRUE)</f>
+        <v>There is a toggleable UI element to show the Ais current move score for each buy</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56">
+        <v>19</v>
+      </c>
+      <c r="C56" t="str">
+        <f>VLOOKUP($B56,Table1[#All],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="D56" t="str">
+        <f>VLOOKUP($B56,Table1[#All],3,TRUE)</f>
+        <v>Main Menu</v>
+      </c>
+      <c r="E56" t="str">
+        <f>VLOOKUP($B56,Table1[#All],4,TRUE)</f>
+        <v>Buttons</v>
+      </c>
+      <c r="F56" t="str">
+        <f>VLOOKUP($B56,Table1[#All],5,TRUE)</f>
+        <v>Game has buttons for Play game,  Quit game, and setup simulation</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>94</v>
+      </c>
+      <c r="B57">
+        <v>22</v>
+      </c>
+      <c r="C57" t="str">
+        <f>VLOOKUP($B57,Table1[#All],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="D57" t="str">
+        <f>VLOOKUP($B57,Table1[#All],3,TRUE)</f>
+        <v>Play Game Menu</v>
+      </c>
+      <c r="E57" t="str">
+        <f>VLOOKUP($B57,Table1[#All],4,TRUE)</f>
+        <v>Start Game</v>
+      </c>
+      <c r="F57" t="str">
+        <f>VLOOKUP($B57,Table1[#All],5,TRUE)</f>
+        <v>There is a start game button on the play game menu</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>94</v>
+      </c>
+      <c r="B58">
+        <v>16</v>
+      </c>
+      <c r="C58" t="str">
+        <f>VLOOKUP($B58,Table1[#All],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="D58" t="str">
+        <f>VLOOKUP($B58,Table1[#All],3,TRUE)</f>
+        <v>AI</v>
+      </c>
+      <c r="E58" t="str">
+        <f>VLOOKUP($B58,Table1[#All],4,TRUE)</f>
+        <v>MCTS</v>
+      </c>
+      <c r="F58" t="str">
+        <f>VLOOKUP($B58,Table1[#All],5,TRUE)</f>
+        <v>MCTS is implemented with exposed variables for tweaking the algorithm like selection method and Exploration parameter</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59">
+        <v>18</v>
+      </c>
+      <c r="C59" t="str">
+        <f>VLOOKUP($B59,Table1[#All],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="D59" t="str">
+        <f>VLOOKUP($B59,Table1[#All],3,TRUE)</f>
+        <v>Analysis</v>
+      </c>
+      <c r="E59" t="str">
+        <f>VLOOKUP($B59,Table1[#All],4,TRUE)</f>
+        <v>Game Simulation</v>
+      </c>
+      <c r="F59" t="str">
+        <f>VLOOKUP($B59,Table1[#All],5,TRUE)</f>
+        <v>Dominion games can go into simulation mode where the games go as fast as possible and aren't renderered on screen.</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60">
+        <v>20</v>
+      </c>
+      <c r="C60" t="str">
+        <f>VLOOKUP($B60,Table1[#All],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="D60" t="str">
+        <f>VLOOKUP($B60,Table1[#All],3,TRUE)</f>
+        <v>Analysis</v>
+      </c>
+      <c r="E60" t="str">
+        <f>VLOOKUP($B60,Table1[#All],4,TRUE)</f>
+        <v>Simulation controls</v>
+      </c>
+      <c r="F60" t="str">
+        <f>VLOOKUP($B60,Table1[#All],5,TRUE)</f>
+        <v>Simulation controls for numer of simulations, which AIs play against each other, variations for MCTS, how long to let MCTS think, etc.</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>95</v>
+      </c>
+      <c r="B61">
+        <v>21</v>
+      </c>
+      <c r="C61" t="str">
+        <f>VLOOKUP($B61,Table1[#All],2,TRUE)</f>
+        <v xml:space="preserve">Game </v>
+      </c>
+      <c r="D61" t="str">
+        <f>VLOOKUP($B61,Table1[#All],3,TRUE)</f>
+        <v>Analysis</v>
+      </c>
+      <c r="E61" t="str">
+        <f>VLOOKUP($B61,Table1[#All],4,TRUE)</f>
+        <v>Results Output Log</v>
+      </c>
+      <c r="F61" t="str">
+        <f>VLOOKUP($B61,Table1[#All],5,TRUE)</f>
+        <v>The results of the simulations are outputted both on screen and out to a text file</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>95</v>
+      </c>
+      <c r="B62">
+        <v>23</v>
+      </c>
+      <c r="C62" t="str">
+        <f>VLOOKUP($B62,Table1[#All],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="D62" t="str">
+        <f>VLOOKUP($B62,Table1[#All],3,TRUE)</f>
+        <v>Play Game Menu</v>
+      </c>
+      <c r="E62" t="str">
+        <f>VLOOKUP($B62,Table1[#All],4,TRUE)</f>
+        <v>Random cards or chosen cards</v>
+      </c>
+      <c r="F62" t="str">
+        <f>VLOOKUP($B62,Table1[#All],5,TRUE)</f>
+        <v>You can choose whether the card piles are random or specified from a given list</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63">
+        <v>16</v>
+      </c>
+      <c r="C63" t="str">
+        <f>VLOOKUP($B63,Table1[#All],2,TRUE)</f>
+        <v>Game</v>
+      </c>
+      <c r="D63" t="str">
+        <f>VLOOKUP($B63,Table1[#All],3,TRUE)</f>
+        <v>AI</v>
+      </c>
+      <c r="E63" t="str">
+        <f>VLOOKUP($B63,Table1[#All],4,TRUE)</f>
+        <v>MCTS</v>
+      </c>
+      <c r="F63" t="str">
+        <f>VLOOKUP($B63,Table1[#All],5,TRUE)</f>
+        <v>MCTS is implemented with exposed variables for tweaking the algorithm like selection method and Exploration parameter</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64">
+        <v>24</v>
+      </c>
+      <c r="C64" t="str">
+        <f>VLOOKUP($B64,Table1[#All],2,TRUE)</f>
+        <v>Results</v>
+      </c>
+      <c r="D64" t="str">
+        <f>VLOOKUP($B64,Table1[#All],3,TRUE)</f>
+        <v>Results</v>
+      </c>
+      <c r="E64" t="str">
+        <f>VLOOKUP($B64,Table1[#All],4,TRUE)</f>
+        <v>MCTS vs Single Witch and Big Money analysis</v>
+      </c>
+      <c r="F64" t="str">
+        <f>VLOOKUP($B64,Table1[#All],5,TRUE)</f>
+        <v>The results between MCTS and Single Witch/Big Money are written up to show how well (or poorly) MCTS did with the different variations</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>90</v>
+      </c>
+      <c r="B71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>91</v>
+      </c>
+      <c r="B72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>92</v>
+      </c>
+      <c r="B75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>93</v>
+      </c>
+      <c r="B76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>94</v>
+      </c>
+      <c r="B79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>95</v>
+      </c>
+      <c r="B80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>95</v>
+      </c>
+      <c r="B81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>